--- a/Excel/SceneConfig.xlsx
+++ b/Excel/SceneConfig.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>#</t>
   </si>
@@ -56,6 +56,22 @@
   </si>
   <si>
     <t>场景资源路径  指向LocalizationArt的序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,36 +430,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E6"/>
+  <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="10.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.75" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="4" max="5" width="14.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.75" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
         <v>1</v>
@@ -452,10 +470,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="C4" s="4" t="s">
         <v>1</v>
@@ -464,27 +485,36 @@
         <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3">
         <v>3</v>
       </c>
     </row>

--- a/Excel/SceneConfig.xlsx
+++ b/Excel/SceneConfig.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -515,7 +515,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="3">
-        <v>3</v>
+        <v>10001</v>
       </c>
     </row>
   </sheetData>
